--- a/src/ScrapperPDF/src/models/arquivos_PDF_MUST/anotacoes_extraidas/export_notes_MUST_tables.xlsx
+++ b/src/ScrapperPDF/src/models/arquivos_PDF_MUST/anotacoes_extraidas/export_notes_MUST_tables.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3408,6 +3408,2666 @@
       <c r="G85" t="inlineStr">
         <is>
           <t>saida_anotacoes_CUST-2002-121-40_ Eletropaulo.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SPARN -138  </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>A.NOGUEIRA - 138 kV (A)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Para o ponto de conexão A.Nogueira 138 kV, a USUÁRIA informou os valores de 30,500 MW para todo horizonte contratual, os quai s foram limitados a 30,000 MW (todo o horizonte fora ponta), condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregame nto de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>SPAGV -138   AGUA VERMELHA - 138</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>A Usuária solicitou os valores de 5,600 e 6,500 MW, ponta e fora ponta, para todo o horizonte contratual, os quais ficaram li mitados a 4,500 e 5,600 MW, ponta e fora ponta, condicionado à manutenção de fator de potência mínimo de 0,95, desconsiderando a parcela de confiabilidade declar ada pela Distribuidora nesse ponto de contratação, devido à violação da capacidade de carregamento de longa duração no transformador 440/138 kV da SE Água Vermelha .</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>SPAGI -138   AGUAI - 138</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Para o ponto de conexão AGUAI 138 kV, a USUÁRIA informou os valores de 23,600 e 22,600 MW, ponta e fora ponta, para todo hori zonte contratual, os quais foram limitados a 20,400 MW (fora ponta), condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade d e carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SPAJI -138   AJINOMOTO INT - 138</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>O atendimento aos valores de MUST fica condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de c arregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>SPANR -138   ANDRADINA - 138</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Para o ponto ANDRADINA 138 kV, a Usuária informou os valores de 43,000 e 46,600 MW, ponta e fora ponta, para todo o horizonte  contratual, os quais ficaram limitados a 37,000 e 38,500 MW, ponta e fora ponta, condicionado à manutenção de fator de potência mínimo de 0,95, desconside rando a parcela de confiabilidade declarada pela Distribuidora nesse ponto de contratação, devido à violação da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha.</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>SPARR1138   ARARAS 1 - 138</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Para o ponto de conexão Araras 1 138 kV, a USUÁRIA informou os valores de 44,800 e 48,600 MW, ponta e fora ponta, para todo h orizonte contratual, os quais foram limitados a 41,000 e 46,400 MW, ponta e fora ponta, condicionados a um fator de potência mínimo de 0,95, desconsiderand o a parcela de confiabilidade declarada pela USUÁRIA neste ponto de contratação e a não violação da capacidade de carregamento de longa duração da LT 138 k V Ribeirão Preto – Porto Ferreira C1/C2.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>SPARR2138   ARARAS 2 - 138</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Para o ponto de conexão Araras 2 138 kV, a USUÁRIA informou os valores de 54,500 e 58,100 MW, ponta e fora ponta, para todo h orizonte contratual, os quais foram limitados a 51,700 e 54,500 MW, condicionados a um fator de potência mínimo de 0,95, desconsiderando a parcela de confi abilidade declarada pela USUÁRIA neste ponto de contratação e a não violação da capacidade de carregamento de longa duração da LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SPATI1138   ATIBAIA 1 - 138</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Para o ponto de conexão Atibaia I 138 kV, a USUÁRIA informou os valores de 96,000 MW, fora ponta, para todo horizonte contrat ual, os quais foram limitados a 92,000 MW, condicionado a um fator de potência mínimo de 0,95, desconsiderando a parcela de confiabilidade declarada pela USU ÁRIA, condicionado também a não violação da capacidade de carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>SPATI3138 -A ATIBAIA 3 - 138</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Para o ponto de conexão Atibaia 3 138 kV, a USUÁRIA informou os valores de 32,800 MW, fora ponta, para todo horizonte contrat ual, os quais foram limitados a 30,000 MW, condicionado a um fator de potência mínimo de 0,95, desconsiderando a parcela de confiabilidade declarada pela USU ÁRIA, condicionado também a não</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>SPASF -138-A AVANTI</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>N.CORT - 138 kV (A)</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado à manutenção de fator de potência mínimo de 0,95, desconsiderando a parcela de confia bilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha.</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>SPBER1138   BERTIOGA 1 - 138</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 indutivo, desconsiderando a parcela de confiabi lidade declarada pela USUÁRIA nesse ponto de contratação, devido a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão, na ocorrência de simultaneidade dos valores de MUST declarados na região do Litoral Norte.</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>SPBER3138   BERTIOGA 3 - 138</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Para o ponto de conexão Bertioga 3 138 kV, a USUÁRIA informou os valores de 14,500 MW, ponta, para todo horizonte contratual,  os quais foram limitados a 13,500 MW, condicionados a um fator de potência mínimo de 0,95 indutivo, desconsiderando a parcela de confiabilidade declarad a pela USUÁRIA nesse ponto de contratação, devido a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão, na ocorrência de simultaneidade dos valores de MUST declarados na região do Litoral Norte.</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>SPBER4138 -A BERTIOGA 4 - 138</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 indutivo, desconsiderando a parcela de confiabi lidade declarada pela USUÁRIA nesse ponto de contratação, devido a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão, na ocorrência de simultaneidade dos valores de MUST declarados na região do Litoral Norte.</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>SPBER2138   BERTIOGA II - 138</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Para o ponto de conexão Bertioga II 138 kV, a USUÁRIA informou os valores de 26,000 e 28,000 MW, ponta e fora ponta, para tod o horizonte contratual, os quais foram limitados a 22,500 e 24,200 MW respectivamente, condicionados a um fator de potência mínimo de 0,95 indutivo, desconsid erando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido a violação da capacidade de carregamento de longa duração na LT 138  kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão, na ocorrência de simultaneidade dos valores de MUST declarados na região do Litoral Norte.</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>SPCBO -138   CAPAO BONITO - 138</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>O atendimento aos valores de MUST fica condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de c arregamento de longa duração na LT 138 kV Embu Guaçu - Mongaguá C1/C2, considerando a simultaneidade dos valores de MUST declarados na rede dessa região.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>SPCBO -138   CAPAO BONITO - 138</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>O atendimento aos valores de MUST fica condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de c arregamento de longa duração na LT 138 kV Embu Guaçu - Mongaguá C1/C2, considerando a simultaneidade dos valores de MUST declarados na rede dessa região.</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>SPCBO -138   CAPAO BONITO - 138</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>O atendimento aos valores de MUST fica condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de c arregamento de longa duração na LT 138 kV Embu Guaçu - Mongaguá C1/C2, considerando a simultaneidade dos valores de MUST declarados na rede dessa região.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>SPCST -138   CASTILHO - 138</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado à manutenção de fator de potência mínimo de 0,95, desconsiderando a parcela de confia bilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha.</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>SPCST2138 -A CASTILHO</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2138kVA</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado à manutenção de fator de potência mínimo de 0,95, desconsiderando a parcela de confia bilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha.</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>SPCEDA138 -A CEDASA - 138</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e à não violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2.</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>SPCER -88    CERQUILHO - 88</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>O atendimento aos valores de MUST solicitados neste ponto, fica condicionado a um fator de potência mínimo de 0,95, desconsid erando a parcela de confiabilidade declarada pela Usuária, devido ao baixo perfil de tensão na rede da região e a violação da capacidade de carre gamento na transformação 138/88 kV da SE Botucatu.</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>SPCIM -138-A CIMENTO</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>MARINGA138kVA</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>MUST reduzidos de forma NÃO ONEROSA (limite até 10%) conforme regulamentação vigente.</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>SPCIM -138-A CIMENTO</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>MARINGA138kVA</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>MUST reduzidos de forma NÃO ONEROSA (limite até 10%) conforme regulamentação vigente.</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>SPCOC -138   CONCHAL - 138</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95, desconsiderando a parcela de confiabilidade de clarada pela USUÁRIA, devido a violação da capacidade de carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>SPCOM -88    CONCHAS - 88</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>O atendimento aos valores de MUST solicitados neste ponto, fica condicionado a um fator de potência mínimo de 0,95, desconsid erando a parcela de confiabilidade declarada pela Usuária, devido ao baixo perfil de tensão na rede da região e a violação da capacidade de carre gamento na transformação 138/88 kV da SE Botucatu.</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>SPRIS -138   CONPACEL - 138</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Para o ponto de conexão CONPACEL 138 kV, a USUÁRIA informou os valores de 55,000 MW, fora ponta, para todo horizonte contratu al, os quais foram limitados a 50,000 MW, condicionado a um fator de potência mínimo de 0,95, desconsiderando a parcela de confiabilidade declarada pela U SUÁRIA, condicionado também a não violação da capacidade de carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>SPCRD -138   CORDEIROPOLIS - 138</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Para o ponto de conexão CORDEIROPOLIS 138 kV, a USUÁRIA informou os valores de 59,900 MW, ponta e fora ponta, para todo horiz onte contratual, os quais foram limitados a 55,000 e 56,000 MW respectivamente, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA.</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>SPCPK -138-A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>CPKELCO138kVA</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>SPCRE -138   CRESCIUMAL - 138</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Para o ponto de conexão CRESCIUMAL 138 kV, a USUÁRIA informou os valores de 2,350 MW, fora ponta, para todo horizonte contrat ual, os quais foram limitados a 2,250 MW, condicionados a um fator de potência mínimo de 0,95, desconsiderando a parcela de confiabilidade declarada pela U SUÁRIA neste ponto de contratação e a não violação da capacidade de carregamento de longa duração da LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2.</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>SPCRZ -138   CRUZACO - 138</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>SPCRZ -138   CRUZACO - 138</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>MUST reduzidos de forma NÃO ONEROSA (limite até 10%) conforme regulamentação vigente.</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>SPCRZ -138   CRUZACO - 138</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>SPYSU -138-A CUTRALE</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>COL. - 138 kV (A)</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 indutivo e a não violação da capacidade de carr egamento de longa duração na</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>SPYSU -138-A CUTRALE</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>COL. - 138 kV (A)</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 indutivo e a não violação da capacidade de carr egamento de longa duração na</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>SPDCI -138-A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>D.CENTER ITAU - 138 kV (A)</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>SPDEL -138   DELTA ELK - 138</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e à não violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA na região. (AA) - Para o ponto de conexão D.QUIMICA ELK 138 kV, a USUÁRIA informou os valores de 13,000 e 13,500 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 11,210 e 11,780 MW respectivamente, condicionado a um fator de potência mínimo de 0,95 indutivo, devi do a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão. (AB) - Para o ponto de conexão ESTRELA D’OESTE 138 kV, a USUÁRIA informou os valores de 11,000 MW, ponta e fora ponta, para todo hor izonte contratual, os quais foram limitados a 8,140 e 10,000 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98, des considerando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha. (AC) - Para o ponto de conexão FERNANDOPOLIS 138 kV, a USUÁRIA informou os valores de 39,000 e 41,000 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 37,350 e 40,500 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98,  desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha. (AD) - Para o ponto de conexão FRANCISCO MOR 138 kV, a USUÁRIA informou os valores de 67,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 63,450 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AE) - Para o ponto de conexão FRANCO DA ROC 138 kV, a USUÁRIA informou os valores de 47,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 45,030 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AF) - Para o ponto de conexão FRANGO RICO 138 kV, a USUÁRIA informou os valores de 5,000 MW, ponta e fora ponta, para todo horizont e contratual, os quais foram limitados a 4,500 MW, ponta e fora ponta, condicionado à manutenção de fator de potência mínimo de 0,98 e a não violaçã o da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AG) - Para o ponto de conexão G UARIROBA 1 138 kV, a USUÁRIA informou os valores de 31,000 MW, ponta, para todo horizonte contratual, os quais foram limitados a 21,000 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AH) - Para o ponto de conexão GUARUJA 1 138 kV, a USUÁRIA informou os valores de 52,500 MW, ponta e fora ponta, para todo horizonte  contratual, os quais foram limitados a 50,000 MW, ponta e fora ponta, condicionado a um fator de potência mínimo de 0,95 indutivo, devido a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação. (AI) - Para o ponto de conexão INTERLAGOS ELK 138 kV, a USUÁRIA informou os valores de 5,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 3,800 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carrega mento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AJ) - Para o ponto de conexão ILHA SOLTEIRA 138 kV, a USUÁRIA informou os valores de 20,000 e 23,500 MW, ponta e fora ponta, para t odo horizonte contratual, os</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>SPELF -138   ELFUSA ELK - 138</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95, desconsiderando a parcela de confiabilidade de clarada pela USUÁRIA, devido a violação da capacidade de carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>SPELF -138   ELFUSA ELK - 138</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>MUST reduzidos de forma NÃO ONEROSA (limite até 10%) conforme regulamentação vigente.</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>SPELF -138   ELFUSA ELK - 138</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>MUST reduzidos de forma NÃO ONEROSA (limite até 10%) conforme regulamentação vigente.</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>SPELF -138   ELFUSA ELK - 138</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95, desconsiderando a parcela de confiabilidade de clarada pela USUÁRIA, devido a violação da capacidade de carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>SPEMC -138-A EMBRAMACO - 138</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>MUST reduzidos de forma NÃO ONEROSA (limite até 10%) conforme regulamentação vigente.</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>SPEMC -138-A EMBRAMACO - 138</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>MUST reduzidos de forma NÃO ONEROSA (limite até 10%) conforme regulamentação vigente.</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>SPENWO138 -A ENERGYWORKS - 138</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95, a não ocorrência de simultaneidade dos valores  de confiabilidade informados pela Elektro na região Atibaia – Mogi e a implementação de um Sistema Especial de Proteção (SEP) para a abertura do barramento de 138 kV da SE São João da Boa Vista II devido a violação da capacidade de carregamento nas LTs 138 kV Poços de Caldas - São João da Boa Vista II C1/C2 e da LT 138 kV São João da Boa Vista II - Mogi Guaçu C1/C2, em condição normal de operação.</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>SPFRR -138   FRANCO DA ROC - 138</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>MUST reduzidos de forma NÃO ONEROSA (limite até 10%) conforme regulamentação vigente.</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>SPFRR -138   FRANCO DA ROC - 138</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>MUST reduzidos de forma NÃO ONEROSA (limite até 10%) conforme regulamentação vigente.</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>SPGUI1138 -A GUARIROBA 1 - 138</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado à manutenção de fator de potência mínimo de 0,95, desconsiderando a parcela de confia bilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha.</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>SPGRJ2138   GUARUJA 2 - 138</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 indutivo, desconsiderando a parcela de confiabi lidade declarada pela USUÁRIA nesse ponto de contratação, devido a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão, na ocorrência de simultaneidade dos valores de MUST declarados na região do Litoral Norte.</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>SPGRJ3138   GUARUJA 3 - 138</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 indutivo, desconsiderando a parcela de confiabi lidade declarada pela USUÁRIA nesse ponto de contratação, devido a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão, na ocorrência de simultaneidade dos valores de MUST declarados na região do Litoral Norte.</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>SPGUA4138 -A GUARUJA</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>4138kVA</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 indutivo, desconsiderando a parcela de confiabi lidade declarada pela USUÁRIA nesse ponto de contratação, devido a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão, na ocorrência de simultaneidade dos valores de MUST declarados na região do Litoral Norte.</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>SPHND -138-A HONDA ELK - 138</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e à não violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA na região. (AA) - Para o ponto de conexão D.QUIMICA ELK 138 kV, a USUÁRIA informou os valores de 13,000 e 13,500 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 11,210 e 11,780 MW respectivamente, condicionado a um fator de potência mínimo de 0,95 indutivo, devi do a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão. (AB) - Para o ponto de conexão ESTRELA D’OESTE 138 kV, a USUÁRIA informou os valores de 11,000 MW, ponta e fora ponta, para todo hor izonte contratual, os quais foram limitados a 8,140 e 10,000 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98, des considerando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha. (AC) - Para o ponto de conexão FERNANDOPOLIS 138 kV, a USUÁRIA informou os valores de 39,000 e 41,000 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 37,350 e 40,500 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98,  desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha. (AD) - Para o ponto de conexão FRANCISCO MOR 138 kV, a USUÁRIA informou os valores de 67,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 63,450 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AE) - Para o ponto de conexão FRANCO DA ROC 138 kV, a USUÁRIA informou os valores de 47,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 45,030 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AF) - Para o ponto de conexão FRANGO RICO 138 kV, a USUÁRIA informou os valores de 5,000 MW, ponta e fora ponta, para todo horizont e contratual, os quais foram limitados a 4,500 MW, ponta e fora ponta, condicionado à manutenção de fator de potência mínimo de 0,98 e a não violaçã o da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AG) - Para o ponto de conexão G UARIROBA 1 138 kV, a USUÁRIA informou os valores de 31,000 MW, ponta, para todo horizonte contratual, os quais foram limitados a 21,000 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AH) - Para o ponto de conexão GUARUJA 1 138 kV, a USUÁRIA informou os valores de 52,500 MW, ponta e fora ponta, para todo horizonte  contratual, os quais foram limitados a 50,000 MW, ponta e fora ponta, condicionado a um fator de potência mínimo de 0,95 indutivo, devido a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação. (AI) - Para o ponto de conexão INTERLAGOS ELK 138 kV, a USUÁRIA informou os valores de 5,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 3,800 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carrega mento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AJ) - Para o ponto de conexão ILHA SOLTEIRA 138 kV, a USUÁRIA informou os valores de 20,000 e 23,500 MW, ponta e fora ponta, para t odo horizonte contratual, os</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>SPINTR138 -A INTERLAGOS</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>ELK138kVA</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado à manutenção de fator de potência mínimo de 0,95, desconsiderando a parcela de confia bilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha.</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>SPITI2138 -A ITIRAPINA 2 - 138</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e à não violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA na região. (AA) - Para o ponto de conexão D.QUIMICA ELK 138 kV, a USUÁRIA informou os valores de 13,000 e 13,500 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 11,210 e 11,780 MW respectivamente, condicionado a um fator de potência mínimo de 0,95 indutivo, devi do a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão. (AB) - Para o ponto de conexão ESTRELA D’OESTE 138 kV, a USUÁRIA informou os valores de 11,000 MW, ponta e fora ponta, para todo hor izonte contratual, os quais foram limitados a 8,140 e 10,000 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98, des considerando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha. (AC) - Para o ponto de conexão FERNANDOPOLIS 138 kV, a USUÁRIA informou os valores de 39,000 e 41,000 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 37,350 e 40,500 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98,  desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha. (AD) - Para o ponto de conexão FRANCISCO MOR 138 kV, a USUÁRIA informou os valores de 67,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 63,450 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AE) - Para o ponto de conexão FRANCO DA ROC 138 kV, a USUÁRIA informou os valores de 47,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 45,030 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AF) - Para o ponto de conexão FRANGO RICO 138 kV, a USUÁRIA informou os valores de 5,000 MW, ponta e fora ponta, para todo horizont e contratual, os quais foram limitados a 4,500 MW, ponta e fora ponta, condicionado à manutenção de fator de potência mínimo de 0,98 e a não violaçã o da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AG) - Para o ponto de conexão G UARIROBA 1 138 kV, a USUÁRIA informou os valores de 31,000 MW, ponta, para todo horizonte contratual, os quais foram limitados a 21,000 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AH) - Para o ponto de conexão GUARUJA 1 138 kV, a USUÁRIA informou os valores de 52,500 MW, ponta e fora ponta, para todo horizonte  contratual, os quais foram limitados a 50,000 MW, ponta e fora ponta, condicionado a um fator de potência mínimo de 0,95 indutivo, devido a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação. (AI) - Para o ponto de conexão INTERLAGOS ELK 138 kV, a USUÁRIA informou os valores de 5,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 3,800 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carrega mento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AJ) - Para o ponto de conexão ILHA SOLTEIRA 138 kV, a USUÁRIA informou os valores de 20,000 e 23,500 MW, ponta e fora ponta, para t odo horizonte contratual, os</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>SPJAR -138   JARINU 1 - 138</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>kV (C)</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95, desconsiderando a parcela de confiabilidade de clarada pela USUÁRIA, devido a violação da capacidade de carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>SPLIM2138   LIMEIRA 2 - 138</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95, desconsiderando a parcela de confiabilidade de clarada pela USUÁRIA, devido a violação da capacidade de carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>SPMAH -138   MAHLE ELK - 138</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>SPMLH -138   MELHORAMENTOS - 138</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>SPMLH -138   MELHORAMENTOS - 138</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>MUST reduzidos de forma NÃO ONEROSA (limite até 10%) conforme regulamentação vigente.</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>SPMLH -138   MELHORAMENTOS - 138</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>SPMLH -138   MELHORAMENTOS - 138</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>MUST reduzidos de forma NÃO ONEROSA (limite até 10%) conforme regulamentação vigente.</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>SPMLH -138   MELHORAMENTOS - 138</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>SPMIR -138   MIRANDOPOLIS1 - 138</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado à manutenção de fator de potência mínimo de 0,95, desconsiderando a parcela de confia bilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha.</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>SPPIR0138 -A PETROBRAS ELK - 138</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e à não violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA na região. (AA) - Para o ponto de conexão D.QUIMICA ELK 138 kV, a USUÁRIA informou os valores de 13,000 e 13,500 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 11,210 e 11,780 MW respectivamente, condicionado a um fator de potência mínimo de 0,95 indutivo, devi do a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão. (AB) - Para o ponto de conexão ESTRELA D’OESTE 138 kV, a USUÁRIA informou os valores de 11,000 MW, ponta e fora ponta, para todo hor izonte contratual, os quais foram limitados a 8,140 e 10,000 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98, des considerando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha. (AC) - Para o ponto de conexão FERNANDOPOLIS 138 kV, a USUÁRIA informou os valores de 39,000 e 41,000 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 37,350 e 40,500 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98,  desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha. (AD) - Para o ponto de conexão FRANCISCO MOR 138 kV, a USUÁRIA informou os valores de 67,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 63,450 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AE) - Para o ponto de conexão FRANCO DA ROC 138 kV, a USUÁRIA informou os valores de 47,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 45,030 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AF) - Para o ponto de conexão FRANGO RICO 138 kV, a USUÁRIA informou os valores de 5,000 MW, ponta e fora ponta, para todo horizont e contratual, os quais foram limitados a 4,500 MW, ponta e fora ponta, condicionado à manutenção de fator de potência mínimo de 0,98 e a não violaçã o da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AG) - Para o ponto de conexão G UARIROBA 1 138 kV, a USUÁRIA informou os valores de 31,000 MW, ponta, para todo horizonte contratual, os quais foram limitados a 21,000 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AH) - Para o ponto de conexão GUARUJA 1 138 kV, a USUÁRIA informou os valores de 52,500 MW, ponta e fora ponta, para todo horizonte  contratual, os quais foram limitados a 50,000 MW, ponta e fora ponta, condicionado a um fator de potência mínimo de 0,95 indutivo, devido a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação. (AI) - Para o ponto de conexão INTERLAGOS ELK 138 kV, a USUÁRIA informou os valores de 5,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 3,800 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carrega mento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AJ) - Para o ponto de conexão ILHA SOLTEIRA 138 kV, a USUÁRIA informou os valores de 20,000 e 23,500 MW, ponta e fora ponta, para t odo horizonte contratual, os</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>SPRIC2138   RIO CLARO 2 - 138</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e à não violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA na região. (AA) - Para o ponto de conexão D.QUIMICA ELK 138 kV, a USUÁRIA informou os valores de 13,000 e 13,500 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 11,210 e 11,780 MW respectivamente, condicionado a um fator de potência mínimo de 0,95 indutivo, devi do a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão. (AB) - Para o ponto de conexão ESTRELA D’OESTE 138 kV, a USUÁRIA informou os valores de 11,000 MW, ponta e fora ponta, para todo hor izonte contratual, os quais foram limitados a 8,140 e 10,000 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98, des considerando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha. (AC) - Para o ponto de conexão FERNANDOPOLIS 138 kV, a USUÁRIA informou os valores de 39,000 e 41,000 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 37,350 e 40,500 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98,  desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha. (AD) - Para o ponto de conexão FRANCISCO MOR 138 kV, a USUÁRIA informou os valores de 67,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 63,450 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AE) - Para o ponto de conexão FRANCO DA ROC 138 kV, a USUÁRIA informou os valores de 47,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 45,030 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AF) - Para o ponto de conexão FRANGO RICO 138 kV, a USUÁRIA informou os valores de 5,000 MW, ponta e fora ponta, para todo horizont e contratual, os quais foram limitados a 4,500 MW, ponta e fora ponta, condicionado à manutenção de fator de potência mínimo de 0,98 e a não violaçã o da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AG) - Para o ponto de conexão G UARIROBA 1 138 kV, a USUÁRIA informou os valores de 31,000 MW, ponta, para todo horizonte contratual, os quais foram limitados a 21,000 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AH) - Para o ponto de conexão GUARUJA 1 138 kV, a USUÁRIA informou os valores de 52,500 MW, ponta e fora ponta, para todo horizonte  contratual, os quais foram limitados a 50,000 MW, ponta e fora ponta, condicionado a um fator de potência mínimo de 0,95 indutivo, devido a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação. (AI) - Para o ponto de conexão INTERLAGOS ELK 138 kV, a USUÁRIA informou os valores de 5,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 3,800 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carrega mento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AJ) - Para o ponto de conexão ILHA SOLTEIRA 138 kV, a USUÁRIA informou os valores de 20,000 e 23,500 MW, ponta e fora ponta, para t odo horizonte contratual, os</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>SPRIC3138   RIO CLARO 3 - 138</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e à não violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA na região. (AA) - Para o ponto de conexão D.QUIMICA ELK 138 kV, a USUÁRIA informou os valores de 13,000 e 13,500 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 11,210 e 11,780 MW respectivamente, condicionado a um fator de potência mínimo de 0,95 indutivo, devi do a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão. (AB) - Para o ponto de conexão ESTRELA D’OESTE 138 kV, a USUÁRIA informou os valores de 11,000 MW, ponta e fora ponta, para todo hor izonte contratual, os quais foram limitados a 8,140 e 10,000 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98, des considerando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha. (AC) - Para o ponto de conexão FERNANDOPOLIS 138 kV, a USUÁRIA informou os valores de 39,000 e 41,000 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 37,350 e 40,500 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98,  desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha. (AD) - Para o ponto de conexão FRANCISCO MOR 138 kV, a USUÁRIA informou os valores de 67,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 63,450 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AE) - Para o ponto de conexão FRANCO DA ROC 138 kV, a USUÁRIA informou os valores de 47,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 45,030 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AF) - Para o ponto de conexão FRANGO RICO 138 kV, a USUÁRIA informou os valores de 5,000 MW, ponta e fora ponta, para todo horizont e contratual, os quais foram limitados a 4,500 MW, ponta e fora ponta, condicionado à manutenção de fator de potência mínimo de 0,98 e a não violaçã o da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AG) - Para o ponto de conexão G UARIROBA 1 138 kV, a USUÁRIA informou os valores de 31,000 MW, ponta, para todo horizonte contratual, os quais foram limitados a 21,000 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AH) - Para o ponto de conexão GUARUJA 1 138 kV, a USUÁRIA informou os valores de 52,500 MW, ponta e fora ponta, para todo horizonte  contratual, os quais foram limitados a 50,000 MW, ponta e fora ponta, condicionado a um fator de potência mínimo de 0,95 indutivo, devido a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação. (AI) - Para o ponto de conexão INTERLAGOS ELK 138 kV, a USUÁRIA informou os valores de 5,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 3,800 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carrega mento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AJ) - Para o ponto de conexão ILHA SOLTEIRA 138 kV, a USUÁRIA informou os valores de 20,000 e 23,500 MW, ponta e fora ponta, para t odo horizonte contratual, os</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>SPRIC1138   RIO CLARO -I - 138</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e à não violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA na região. (AA) - Para o ponto de conexão D.QUIMICA ELK 138 kV, a USUÁRIA informou os valores de 13,000 e 13,500 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 11,210 e 11,780 MW respectivamente, condicionado a um fator de potência mínimo de 0,95 indutivo, devi do a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão. (AB) - Para o ponto de conexão ESTRELA D’OESTE 138 kV, a USUÁRIA informou os valores de 11,000 MW, ponta e fora ponta, para todo hor izonte contratual, os quais foram limitados a 8,140 e 10,000 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98, des considerando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha. (AC) - Para o ponto de conexão FERNANDOPOLIS 138 kV, a USUÁRIA informou os valores de 39,000 e 41,000 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 37,350 e 40,500 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98,  desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha. (AD) - Para o ponto de conexão FRANCISCO MOR 138 kV, a USUÁRIA informou os valores de 67,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 63,450 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AE) - Para o ponto de conexão FRANCO DA ROC 138 kV, a USUÁRIA informou os valores de 47,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 45,030 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AF) - Para o ponto de conexão FRANGO RICO 138 kV, a USUÁRIA informou os valores de 5,000 MW, ponta e fora ponta, para todo horizont e contratual, os quais foram limitados a 4,500 MW, ponta e fora ponta, condicionado à manutenção de fator de potência mínimo de 0,98 e a não violaçã o da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AG) - Para o ponto de conexão G UARIROBA 1 138 kV, a USUÁRIA informou os valores de 31,000 MW, ponta, para todo horizonte contratual, os quais foram limitados a 21,000 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AH) - Para o ponto de conexão GUARUJA 1 138 kV, a USUÁRIA informou os valores de 52,500 MW, ponta e fora ponta, para todo horizonte  contratual, os quais foram limitados a 50,000 MW, ponta e fora ponta, condicionado a um fator de potência mínimo de 0,95 indutivo, devido a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação. (AI) - Para o ponto de conexão INTERLAGOS ELK 138 kV, a USUÁRIA informou os valores de 5,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 3,800 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carrega mento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AJ) - Para o ponto de conexão ILHA SOLTEIRA 138 kV, a USUÁRIA informou os valores de 20,000 e 23,500 MW, ponta e fora ponta, para t odo horizonte contratual, os</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SPSCP -138  </t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>S.C.PALMEIRAS - 138 kV (A)</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e à não violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA na região. (AA) - Para o ponto de conexão D.QUIMICA ELK 138 kV, a USUÁRIA informou os valores de 13,000 e 13,500 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 11,210 e 11,780 MW respectivamente, condicionado a um fator de potência mínimo de 0,95 indutivo, devi do a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão. (AB) - Para o ponto de conexão ESTRELA D’OESTE 138 kV, a USUÁRIA informou os valores de 11,000 MW, ponta e fora ponta, para todo hor izonte contratual, os quais foram limitados a 8,140 e 10,000 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98, des considerando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha. (AC) - Para o ponto de conexão FERNANDOPOLIS 138 kV, a USUÁRIA informou os valores de 39,000 e 41,000 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 37,350 e 40,500 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98,  desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha. (AD) - Para o ponto de conexão FRANCISCO MOR 138 kV, a USUÁRIA informou os valores de 67,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 63,450 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AE) - Para o ponto de conexão FRANCO DA ROC 138 kV, a USUÁRIA informou os valores de 47,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 45,030 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AF) - Para o ponto de conexão FRANGO RICO 138 kV, a USUÁRIA informou os valores de 5,000 MW, ponta e fora ponta, para todo horizont e contratual, os quais foram limitados a 4,500 MW, ponta e fora ponta, condicionado à manutenção de fator de potência mínimo de 0,98 e a não violaçã o da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AG) - Para o ponto de conexão G UARIROBA 1 138 kV, a USUÁRIA informou os valores de 31,000 MW, ponta, para todo horizonte contratual, os quais foram limitados a 21,000 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AH) - Para o ponto de conexão GUARUJA 1 138 kV, a USUÁRIA informou os valores de 52,500 MW, ponta e fora ponta, para todo horizonte  contratual, os quais foram limitados a 50,000 MW, ponta e fora ponta, condicionado a um fator de potência mínimo de 0,95 indutivo, devido a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação. (AI) - Para o ponto de conexão INTERLAGOS ELK 138 kV, a USUÁRIA informou os valores de 5,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 3,800 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carrega mento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AJ) - Para o ponto de conexão ILHA SOLTEIRA 138 kV, a USUÁRIA informou os valores de 20,000 e 23,500 MW, ponta e fora ponta, para t odo horizonte contratual, os</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>SPTAM -138   TAMBAU ELK - 138</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e à não violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA na região. (AA) - Para o ponto de conexão D.QUIMICA ELK 138 kV, a USUÁRIA informou os valores de 13,000 e 13,500 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 11,210 e 11,780 MW respectivamente, condicionado a um fator de potência mínimo de 0,95 indutivo, devi do a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão. (AB) - Para o ponto de conexão ESTRELA D’OESTE 138 kV, a USUÁRIA informou os valores de 11,000 MW, ponta e fora ponta, para todo hor izonte contratual, os quais foram limitados a 8,140 e 10,000 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98, des considerando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha. (AC) - Para o ponto de conexão FERNANDOPOLIS 138 kV, a USUÁRIA informou os valores de 39,000 e 41,000 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 37,350 e 40,500 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98,  desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha. (AD) - Para o ponto de conexão FRANCISCO MOR 138 kV, a USUÁRIA informou os valores de 67,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 63,450 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AE) - Para o ponto de conexão FRANCO DA ROC 138 kV, a USUÁRIA informou os valores de 47,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 45,030 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AF) - Para o ponto de conexão FRANGO RICO 138 kV, a USUÁRIA informou os valores de 5,000 MW, ponta e fora ponta, para todo horizont e contratual, os quais foram limitados a 4,500 MW, ponta e fora ponta, condicionado à manutenção de fator de potência mínimo de 0,98 e a não violaçã o da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AG) - Para o ponto de conexão G UARIROBA 1 138 kV, a USUÁRIA informou os valores de 31,000 MW, ponta, para todo horizonte contratual, os quais foram limitados a 21,000 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AH) - Para o ponto de conexão GUARUJA 1 138 kV, a USUÁRIA informou os valores de 52,500 MW, ponta e fora ponta, para todo horizonte  contratual, os quais foram limitados a 50,000 MW, ponta e fora ponta, condicionado a um fator de potência mínimo de 0,95 indutivo, devido a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação. (AI) - Para o ponto de conexão INTERLAGOS ELK 138 kV, a USUÁRIA informou os valores de 5,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 3,800 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carrega mento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AJ) - Para o ponto de conexão ILHA SOLTEIRA 138 kV, a USUÁRIA informou os valores de 20,000 e 23,500 MW, ponta e fora ponta, para t odo horizonte contratual, os</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>SPTRI -138   TRES IRMAOS - 138</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>MUST reduzidos de forma NÃO ONEROSA (limite até 10%) conforme regulamentação vigente.</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>SPTRW -138-A TRW</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>AUTOMOTI. - 138 kV (A)</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95, desconsiderando a parcela de confiabilidade de clarada pela USUÁRIA, devido a violação da capacidade de carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>SPUBA2138   UBATUBA 2 - 138</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>kV (A)</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>MUST reduzidos de forma NÃO ONEROSA (limite até 10%) conforme regulamentação vigente.</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>SPVER -138-A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>VERALLIA138kVA</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e à não violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA na região. (AA) - Para o ponto de conexão D.QUIMICA ELK 138 kV, a USUÁRIA informou os valores de 13,000 e 13,500 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 11,210 e 11,780 MW respectivamente, condicionado a um fator de potência mínimo de 0,95 indutivo, devi do a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão. (AB) - Para o ponto de conexão ESTRELA D’OESTE 138 kV, a USUÁRIA informou os valores de 11,000 MW, ponta e fora ponta, para todo hor izonte contratual, os quais foram limitados a 8,140 e 10,000 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98, des considerando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha. (AC) - Para o ponto de conexão FERNANDOPOLIS 138 kV, a USUÁRIA informou os valores de 39,000 e 41,000 MW, ponta e fora ponta, para t odo horizonte contratual, os quais foram limitados a 37,350 e 40,500 MW respectivamente, condicionado à manutenção de fator de potência mínimo de 0,98,  desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação, devido à violação da capacidade de carregamento de longa du ração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha. (AD) - Para o ponto de conexão FRANCISCO MOR 138 kV, a USUÁRIA informou os valores de 67,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 63,450 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AE) - Para o ponto de conexão FRANCO DA ROC 138 kV, a USUÁRIA informou os valores de 47,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 45,030 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de l onga duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AF) - Para o ponto de conexão FRANGO RICO 138 kV, a USUÁRIA informou os valores de 5,000 MW, ponta e fora ponta, para todo horizont e contratual, os quais foram limitados a 4,500 MW, ponta e fora ponta, condicionado à manutenção de fator de potência mínimo de 0,98 e a não violaçã o da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales, LT 138 kV Jales – Votuporanga II e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA. (AG) - Para o ponto de conexão G UARIROBA 1 138 kV, a USUÁRIA informou os valores de 31,000 MW, ponta, para todo horizonte contratual, os quais foram limitados a 21,000 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AH) - Para o ponto de conexão GUARUJA 1 138 kV, a USUÁRIA informou os valores de 52,500 MW, ponta e fora ponta, para todo horizonte  contratual, os quais foram limitados a 50,000 MW, ponta e fora ponta, condicionado a um fator de potência mínimo de 0,95 indutivo, devido a violação da capacidade de carregamento de longa duração na LT 138 kV Santo Ângelo – Bertioga II C1/C2 e ao baixo perfil de tensão, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação. (AI) - Para o ponto de conexão INTERLAGOS ELK 138 kV, a USUÁRIA informou os valores de 5,000 MW, fora ponta, para todo horizonte con tratual, os quais foram limitados a 3,800 MW, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carrega mento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRI A. (AJ) - Para o ponto de conexão ILHA SOLTEIRA 138 kV, a USUÁRIA informou os valores de 20,000 e 23,500 MW, ponta e fora ponta, para t odo horizonte contratual, os</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>SPZARP138 -A ZARAPLAST</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>ELK138kVA</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>SPZARP138 -A ZARAPLAST</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>ELK138kVA</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>MUST reduzidos de forma NÃO ONEROSA (limite até 10%) conforme regulamentação vigente.</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>SPZARP138 -A ZARAPLAST</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>ELK138kVA</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>SPZARP138 -A ZARAPLAST</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>ELK138kVA</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>MUST reduzidos de forma NÃO ONEROSA (limite até 10%) conforme regulamentação vigente.</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>SPZARP138 -A ZARAPLAST</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>ELK138kVA</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração da LT 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2.</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>saida_anotacoes_NEOENERGIA ELEKTRO.xlsx</t>
         </is>
       </c>
     </row>
@@ -3422,7 +6082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3447,6 +6107,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>DESCONHECIDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>ELETROPAULO</t>
         </is>
       </c>
